--- a/test-case-bug-report/wakie test задание.xlsx
+++ b/test-case-bug-report/wakie test задание.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\___IT\тестовые задания на собеседовании\wakie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\qa_repository\QA-cources\test-case-bug-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D05FF5-44B2-40E1-AC20-E2F932A20269}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D4EF21-7CF4-4073-96F3-0538E3830A38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CE22C91-17B0-4C10-8A10-4EE4BCE33A2D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>1. Составление тестового сценария</t>
   </si>
@@ -77,9 +77,6 @@
     <t>НАЗВАНИЕ</t>
   </si>
   <si>
-    <t>ПРОВЕРКА ОТПРАВКИ НОВОГО КОМПЛИМЕНТА с  IOS на ANDROID</t>
-  </si>
-  <si>
     <t>ПРЕДУСЛОВИЕ</t>
   </si>
   <si>
@@ -111,15 +108,6 @@
   </si>
   <si>
     <t>ОЖИДАЕМЫЙ РЕЗУЛЬТАТ</t>
-  </si>
-  <si>
-    <t>НА IOS
-1. На смартфоне с IOS в разделе messages -&gt; recent появитс отправленное сообщение пользователю с ANDROID с Комплиментом 
-НА ANDROID
-1. На смартфоне с ANDROID на экране появится PUSH уведомление  с комплиментом и сообщением от пользователя IOS
-2. В разделе messages -&gt; recent появится сообщение с комплиментом от пользователя IOS
-ОБЩЕЕ
-3. Фоны Комплиментов должны иметь разный цвет в профиле отправителя и получателя</t>
   </si>
   <si>
     <t>https://youtu.be/bRrnujrPsPo</t>
@@ -408,6 +396,22 @@
   </si>
   <si>
     <t>Бета-тестером был, но не в известных продуктах, разве что если считать бета тест в WOW</t>
+  </si>
+  <si>
+    <t>НА ANDROID
+1. На смартфоне с ANDROID на экране появится PUSH уведомление  с комплиментом и сообщением от пользователя IOS
+2. В разделе messages -&gt; recent появится сообщение с комплиментом от пользователя IOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НА IOS
+1. На смартфоне с IOS в разделе messages -&gt; recent появитс отправленное сообщение пользователю с ANDROID с Комплиментом 
+</t>
+  </si>
+  <si>
+    <t>ПРОВЕРКА ОТПРАВКИ НОВОГО КОМПЛИМЕНТА с  IOS</t>
+  </si>
+  <si>
+    <t>ПРОВЕРКА ПЛУЧЕНИЯ КОМПЛИМЕНТА на ANDROID</t>
   </si>
 </sst>
 </file>
@@ -887,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44F13CA-8119-451C-AA2C-429991846CCB}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,493 +944,525 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>121</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="9" t="s">
+    <row r="15" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="9" t="s">
+    <row r="16" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="10" t="s">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="13">
-        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="13">
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="D25" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="D31" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="11" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="9" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="13">
-        <v>315</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>48</v>
-      </c>
+    <row r="35" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="B36" s="13">
+        <v>315</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B51" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B52" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B53" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B55" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="B56" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B57" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B60" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="5" t="s">
+      <c r="D70" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="9"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="9"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
